--- a/mbs-perturbation/bottleneck/welm/smote/bloated_welm_tanh_smote_results.xlsx
+++ b/mbs-perturbation/bottleneck/welm/smote/bloated_welm_tanh_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7307692307692307</v>
+        <v>0.5447761194029851</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7929515418502202</v>
+        <v>0.1633663366336634</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7515657620041754</v>
+        <v>0.2650602409638554</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7256428644606087</v>
+        <v>0.6883663366336633</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4988662131519274</v>
+        <v>0.7437810945273632</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.8512820512820513</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6486486486486487</v>
+        <v>0.7632183908045977</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6601927690907587</v>
+        <v>0.7880713489409141</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5941043083900227</v>
+        <v>0.6990049751243781</v>
       </c>
       <c r="C4" t="n">
-        <v>0.867579908675799</v>
+        <v>0.9740932642487047</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6797853309481217</v>
+        <v>0.7565392354124748</v>
       </c>
       <c r="E4" t="n">
-        <v>0.740631042000905</v>
+        <v>0.8114758162481097</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6893424036281179</v>
+        <v>0.6059850374064838</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9912663755458515</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7681895093062606</v>
+        <v>0.7127272727272728</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7366626843536294</v>
+        <v>0.7707317073170732</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6303854875283447</v>
+        <v>0.5012468827930174</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9910714285714286</v>
+        <v>0.1880733944954129</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7314662273476112</v>
+        <v>0.2907801418439717</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7139051184990125</v>
+        <v>0.4657467288314032</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6286935286935287</v>
+        <v>0.6189588218508455</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9285738509286598</v>
+        <v>0.6353630093319664</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7159310956509636</v>
+        <v>0.5576650563504344</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7154068956809828</v>
+        <v>0.7048783875942327</v>
       </c>
     </row>
   </sheetData>
